--- a/po_analysis_by_asin/B09ZKHW4M7_po_data.xlsx
+++ b/po_analysis_by_asin/B09ZKHW4M7_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,97 +452,345 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45334</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45383</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45390</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45509</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45558</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -557,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,49 +827,137 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45505</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B18" t="n">
         <v>2</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09ZKHW4M7_po_data.xlsx
+++ b/po_analysis_by_asin/B09ZKHW4M7_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -821,7 +822,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -959,6 +960,761 @@
       </c>
       <c r="B18" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>49</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-75.59530120665319</v>
+      </c>
+      <c r="D2" t="n">
+        <v>166.3745075216089</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-66.49878592273816</v>
+      </c>
+      <c r="D3" t="n">
+        <v>172.8534961407292</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>48</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-71.77238817381686</v>
+      </c>
+      <c r="D4" t="n">
+        <v>178.9360086199443</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>47</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-73.79119508081078</v>
+      </c>
+      <c r="D5" t="n">
+        <v>166.538923623922</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>47</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-77.95448128072319</v>
+      </c>
+      <c r="D6" t="n">
+        <v>168.9600853998828</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>46</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-82.13476183018388</v>
+      </c>
+      <c r="D7" t="n">
+        <v>171.0513259166142</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>46</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-71.79774103166034</v>
+      </c>
+      <c r="D8" t="n">
+        <v>165.6731226795948</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>45</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-77.02904464173373</v>
+      </c>
+      <c r="D9" t="n">
+        <v>175.8527979332153</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>45</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-81.46662350784891</v>
+      </c>
+      <c r="D10" t="n">
+        <v>162.6816329407339</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>44</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-80.86349339113323</v>
+      </c>
+      <c r="D11" t="n">
+        <v>170.9849346769948</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>43</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-83.58096166070897</v>
+      </c>
+      <c r="D12" t="n">
+        <v>167.7233704020926</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>43</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-74.88996182609456</v>
+      </c>
+      <c r="D13" t="n">
+        <v>175.8437557905773</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>42</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-74.35587407005364</v>
+      </c>
+      <c r="D14" t="n">
+        <v>161.4743550962844</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>42</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-83.20211215949404</v>
+      </c>
+      <c r="D15" t="n">
+        <v>157.6303851548278</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>41</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-86.30052238114594</v>
+      </c>
+      <c r="D16" t="n">
+        <v>159.7921063678874</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>38</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-78.82735104725477</v>
+      </c>
+      <c r="D17" t="n">
+        <v>159.2924790329773</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>35</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-86.91387355372724</v>
+      </c>
+      <c r="D18" t="n">
+        <v>152.1183750144732</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>34</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-92.3091934932407</v>
+      </c>
+      <c r="D19" t="n">
+        <v>154.8455632887962</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>34</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-84.66418399018181</v>
+      </c>
+      <c r="D20" t="n">
+        <v>159.959723506</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>33</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-85.45606979243864</v>
+      </c>
+      <c r="D21" t="n">
+        <v>158.9897697061442</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>33</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-95.96503831842567</v>
+      </c>
+      <c r="D22" t="n">
+        <v>149.8078326294235</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>32</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-90.00503979726062</v>
+      </c>
+      <c r="D23" t="n">
+        <v>156.3420143835893</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-88.156618594058</v>
+      </c>
+      <c r="D24" t="n">
+        <v>145.8658426010983</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-91.41004945378451</v>
+      </c>
+      <c r="D25" t="n">
+        <v>157.7232413288338</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>29</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-83.47622895198386</v>
+      </c>
+      <c r="D26" t="n">
+        <v>167.3385325345693</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>29</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-89.99593857273359</v>
+      </c>
+      <c r="D27" t="n">
+        <v>151.1410985793694</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>28</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-93.77531444638237</v>
+      </c>
+      <c r="D28" t="n">
+        <v>148.0994361668444</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-98.98377222474163</v>
+      </c>
+      <c r="D29" t="n">
+        <v>153.4322269957472</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>27</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-98.30666578761306</v>
+      </c>
+      <c r="D30" t="n">
+        <v>149.2270823270797</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>27</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-96.63811023270442</v>
+      </c>
+      <c r="D31" t="n">
+        <v>142.1115214019671</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>26</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-95.00542172335263</v>
+      </c>
+      <c r="D32" t="n">
+        <v>147.3793000010791</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>25</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-96.26351867884298</v>
+      </c>
+      <c r="D33" t="n">
+        <v>148.8082044536791</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>24</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-101.1513999841982</v>
+      </c>
+      <c r="D34" t="n">
+        <v>146.4044313248765</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>24</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-98.04219878427679</v>
+      </c>
+      <c r="D35" t="n">
+        <v>140.0607568223085</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>22</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-89.93633935977097</v>
+      </c>
+      <c r="D36" t="n">
+        <v>140.6346469486815</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>21</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-98.44840539267355</v>
+      </c>
+      <c r="D37" t="n">
+        <v>153.9040932491547</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>20</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-103.0331998972459</v>
+      </c>
+      <c r="D38" t="n">
+        <v>137.9762782832216</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-104.4137915578647</v>
+      </c>
+      <c r="D39" t="n">
+        <v>144.9590178519088</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-105.058045675779</v>
+      </c>
+      <c r="D40" t="n">
+        <v>139.848250543592</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-93.28162851182489</v>
+      </c>
+      <c r="D41" t="n">
+        <v>147.1903907650027</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>18</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-101.2030496800437</v>
+      </c>
+      <c r="D42" t="n">
+        <v>139.6911472520035</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-113.7362455885783</v>
+      </c>
+      <c r="D43" t="n">
+        <v>134.9222971313502</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-115.9092129085031</v>
+      </c>
+      <c r="D44" t="n">
+        <v>124.1511660062127</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-121.237699209932</v>
+      </c>
+      <c r="D45" t="n">
+        <v>128.9457865281843</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-113.7440688275308</v>
+      </c>
+      <c r="D46" t="n">
+        <v>129.0736535661317</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-114.6711600812744</v>
+      </c>
+      <c r="D47" t="n">
+        <v>127.7645356653808</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-118.194613346872</v>
+      </c>
+      <c r="D48" t="n">
+        <v>126.239381243136</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-118.0500267156799</v>
+      </c>
+      <c r="D49" t="n">
+        <v>123.4717255597387</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-111.6326622898972</v>
+      </c>
+      <c r="D50" t="n">
+        <v>127.023062782834</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-124.1605901547125</v>
+      </c>
+      <c r="D51" t="n">
+        <v>126.6148779509915</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-111.6354212577613</v>
+      </c>
+      <c r="D52" t="n">
+        <v>128.0498331021545</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09ZKHW4M7_po_data.xlsx
+++ b/po_analysis_by_asin/B09ZKHW4M7_po_data.xlsx
@@ -973,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,16 +992,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1010,12 +1000,6 @@
       <c r="B2" t="n">
         <v>49</v>
       </c>
-      <c r="C2" t="n">
-        <v>-75.59530120665319</v>
-      </c>
-      <c r="D2" t="n">
-        <v>166.3745075216089</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1024,12 +1008,6 @@
       <c r="B3" t="n">
         <v>48</v>
       </c>
-      <c r="C3" t="n">
-        <v>-66.49878592273816</v>
-      </c>
-      <c r="D3" t="n">
-        <v>172.8534961407292</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1038,12 +1016,6 @@
       <c r="B4" t="n">
         <v>48</v>
       </c>
-      <c r="C4" t="n">
-        <v>-71.77238817381686</v>
-      </c>
-      <c r="D4" t="n">
-        <v>178.9360086199443</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1052,12 +1024,6 @@
       <c r="B5" t="n">
         <v>47</v>
       </c>
-      <c r="C5" t="n">
-        <v>-73.79119508081078</v>
-      </c>
-      <c r="D5" t="n">
-        <v>166.538923623922</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1066,12 +1032,6 @@
       <c r="B6" t="n">
         <v>47</v>
       </c>
-      <c r="C6" t="n">
-        <v>-77.95448128072319</v>
-      </c>
-      <c r="D6" t="n">
-        <v>168.9600853998828</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1080,12 +1040,6 @@
       <c r="B7" t="n">
         <v>46</v>
       </c>
-      <c r="C7" t="n">
-        <v>-82.13476183018388</v>
-      </c>
-      <c r="D7" t="n">
-        <v>171.0513259166142</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1094,12 +1048,6 @@
       <c r="B8" t="n">
         <v>46</v>
       </c>
-      <c r="C8" t="n">
-        <v>-71.79774103166034</v>
-      </c>
-      <c r="D8" t="n">
-        <v>165.6731226795948</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1108,12 +1056,6 @@
       <c r="B9" t="n">
         <v>45</v>
       </c>
-      <c r="C9" t="n">
-        <v>-77.02904464173373</v>
-      </c>
-      <c r="D9" t="n">
-        <v>175.8527979332153</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1122,12 +1064,6 @@
       <c r="B10" t="n">
         <v>45</v>
       </c>
-      <c r="C10" t="n">
-        <v>-81.46662350784891</v>
-      </c>
-      <c r="D10" t="n">
-        <v>162.6816329407339</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1136,12 +1072,6 @@
       <c r="B11" t="n">
         <v>44</v>
       </c>
-      <c r="C11" t="n">
-        <v>-80.86349339113323</v>
-      </c>
-      <c r="D11" t="n">
-        <v>170.9849346769948</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1150,12 +1080,6 @@
       <c r="B12" t="n">
         <v>43</v>
       </c>
-      <c r="C12" t="n">
-        <v>-83.58096166070897</v>
-      </c>
-      <c r="D12" t="n">
-        <v>167.7233704020926</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1164,12 +1088,6 @@
       <c r="B13" t="n">
         <v>43</v>
       </c>
-      <c r="C13" t="n">
-        <v>-74.88996182609456</v>
-      </c>
-      <c r="D13" t="n">
-        <v>175.8437557905773</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1178,12 +1096,6 @@
       <c r="B14" t="n">
         <v>42</v>
       </c>
-      <c r="C14" t="n">
-        <v>-74.35587407005364</v>
-      </c>
-      <c r="D14" t="n">
-        <v>161.4743550962844</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1192,12 +1104,6 @@
       <c r="B15" t="n">
         <v>42</v>
       </c>
-      <c r="C15" t="n">
-        <v>-83.20211215949404</v>
-      </c>
-      <c r="D15" t="n">
-        <v>157.6303851548278</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1206,12 +1112,6 @@
       <c r="B16" t="n">
         <v>41</v>
       </c>
-      <c r="C16" t="n">
-        <v>-86.30052238114594</v>
-      </c>
-      <c r="D16" t="n">
-        <v>159.7921063678874</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1220,12 +1120,6 @@
       <c r="B17" t="n">
         <v>38</v>
       </c>
-      <c r="C17" t="n">
-        <v>-78.82735104725477</v>
-      </c>
-      <c r="D17" t="n">
-        <v>159.2924790329773</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1234,12 +1128,6 @@
       <c r="B18" t="n">
         <v>35</v>
       </c>
-      <c r="C18" t="n">
-        <v>-86.91387355372724</v>
-      </c>
-      <c r="D18" t="n">
-        <v>152.1183750144732</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1248,12 +1136,6 @@
       <c r="B19" t="n">
         <v>34</v>
       </c>
-      <c r="C19" t="n">
-        <v>-92.3091934932407</v>
-      </c>
-      <c r="D19" t="n">
-        <v>154.8455632887962</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1262,12 +1144,6 @@
       <c r="B20" t="n">
         <v>34</v>
       </c>
-      <c r="C20" t="n">
-        <v>-84.66418399018181</v>
-      </c>
-      <c r="D20" t="n">
-        <v>159.959723506</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1276,12 +1152,6 @@
       <c r="B21" t="n">
         <v>33</v>
       </c>
-      <c r="C21" t="n">
-        <v>-85.45606979243864</v>
-      </c>
-      <c r="D21" t="n">
-        <v>158.9897697061442</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1290,12 +1160,6 @@
       <c r="B22" t="n">
         <v>33</v>
       </c>
-      <c r="C22" t="n">
-        <v>-95.96503831842567</v>
-      </c>
-      <c r="D22" t="n">
-        <v>149.8078326294235</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1304,12 +1168,6 @@
       <c r="B23" t="n">
         <v>32</v>
       </c>
-      <c r="C23" t="n">
-        <v>-90.00503979726062</v>
-      </c>
-      <c r="D23" t="n">
-        <v>156.3420143835893</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1318,12 +1176,6 @@
       <c r="B24" t="n">
         <v>31</v>
       </c>
-      <c r="C24" t="n">
-        <v>-88.156618594058</v>
-      </c>
-      <c r="D24" t="n">
-        <v>145.8658426010983</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1332,12 +1184,6 @@
       <c r="B25" t="n">
         <v>31</v>
       </c>
-      <c r="C25" t="n">
-        <v>-91.41004945378451</v>
-      </c>
-      <c r="D25" t="n">
-        <v>157.7232413288338</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1346,12 +1192,6 @@
       <c r="B26" t="n">
         <v>29</v>
       </c>
-      <c r="C26" t="n">
-        <v>-83.47622895198386</v>
-      </c>
-      <c r="D26" t="n">
-        <v>167.3385325345693</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1360,12 +1200,6 @@
       <c r="B27" t="n">
         <v>29</v>
       </c>
-      <c r="C27" t="n">
-        <v>-89.99593857273359</v>
-      </c>
-      <c r="D27" t="n">
-        <v>151.1410985793694</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1374,12 +1208,6 @@
       <c r="B28" t="n">
         <v>28</v>
       </c>
-      <c r="C28" t="n">
-        <v>-93.77531444638237</v>
-      </c>
-      <c r="D28" t="n">
-        <v>148.0994361668444</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1388,12 +1216,6 @@
       <c r="B29" t="n">
         <v>28</v>
       </c>
-      <c r="C29" t="n">
-        <v>-98.98377222474163</v>
-      </c>
-      <c r="D29" t="n">
-        <v>153.4322269957472</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1402,12 +1224,6 @@
       <c r="B30" t="n">
         <v>27</v>
       </c>
-      <c r="C30" t="n">
-        <v>-98.30666578761306</v>
-      </c>
-      <c r="D30" t="n">
-        <v>149.2270823270797</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1416,12 +1232,6 @@
       <c r="B31" t="n">
         <v>27</v>
       </c>
-      <c r="C31" t="n">
-        <v>-96.63811023270442</v>
-      </c>
-      <c r="D31" t="n">
-        <v>142.1115214019671</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1430,12 +1240,6 @@
       <c r="B32" t="n">
         <v>26</v>
       </c>
-      <c r="C32" t="n">
-        <v>-95.00542172335263</v>
-      </c>
-      <c r="D32" t="n">
-        <v>147.3793000010791</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1444,12 +1248,6 @@
       <c r="B33" t="n">
         <v>25</v>
       </c>
-      <c r="C33" t="n">
-        <v>-96.26351867884298</v>
-      </c>
-      <c r="D33" t="n">
-        <v>148.8082044536791</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1458,12 +1256,6 @@
       <c r="B34" t="n">
         <v>24</v>
       </c>
-      <c r="C34" t="n">
-        <v>-101.1513999841982</v>
-      </c>
-      <c r="D34" t="n">
-        <v>146.4044313248765</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1472,12 +1264,6 @@
       <c r="B35" t="n">
         <v>24</v>
       </c>
-      <c r="C35" t="n">
-        <v>-98.04219878427679</v>
-      </c>
-      <c r="D35" t="n">
-        <v>140.0607568223085</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1486,12 +1272,6 @@
       <c r="B36" t="n">
         <v>22</v>
       </c>
-      <c r="C36" t="n">
-        <v>-89.93633935977097</v>
-      </c>
-      <c r="D36" t="n">
-        <v>140.6346469486815</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1500,12 +1280,6 @@
       <c r="B37" t="n">
         <v>21</v>
       </c>
-      <c r="C37" t="n">
-        <v>-98.44840539267355</v>
-      </c>
-      <c r="D37" t="n">
-        <v>153.9040932491547</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1514,12 +1288,6 @@
       <c r="B38" t="n">
         <v>20</v>
       </c>
-      <c r="C38" t="n">
-        <v>-103.0331998972459</v>
-      </c>
-      <c r="D38" t="n">
-        <v>137.9762782832216</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1528,12 +1296,6 @@
       <c r="B39" t="n">
         <v>20</v>
       </c>
-      <c r="C39" t="n">
-        <v>-104.4137915578647</v>
-      </c>
-      <c r="D39" t="n">
-        <v>144.9590178519088</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1542,12 +1304,6 @@
       <c r="B40" t="n">
         <v>20</v>
       </c>
-      <c r="C40" t="n">
-        <v>-105.058045675779</v>
-      </c>
-      <c r="D40" t="n">
-        <v>139.848250543592</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1556,12 +1312,6 @@
       <c r="B41" t="n">
         <v>19</v>
       </c>
-      <c r="C41" t="n">
-        <v>-93.28162851182489</v>
-      </c>
-      <c r="D41" t="n">
-        <v>147.1903907650027</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1570,12 +1320,6 @@
       <c r="B42" t="n">
         <v>18</v>
       </c>
-      <c r="C42" t="n">
-        <v>-101.2030496800437</v>
-      </c>
-      <c r="D42" t="n">
-        <v>139.6911472520035</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1584,12 +1328,6 @@
       <c r="B43" t="n">
         <v>10</v>
       </c>
-      <c r="C43" t="n">
-        <v>-113.7362455885783</v>
-      </c>
-      <c r="D43" t="n">
-        <v>134.9222971313502</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1598,12 +1336,6 @@
       <c r="B44" t="n">
         <v>6</v>
       </c>
-      <c r="C44" t="n">
-        <v>-115.9092129085031</v>
-      </c>
-      <c r="D44" t="n">
-        <v>124.1511660062127</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1612,12 +1344,6 @@
       <c r="B45" t="n">
         <v>6</v>
       </c>
-      <c r="C45" t="n">
-        <v>-121.237699209932</v>
-      </c>
-      <c r="D45" t="n">
-        <v>128.9457865281843</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1626,12 +1352,6 @@
       <c r="B46" t="n">
         <v>5</v>
       </c>
-      <c r="C46" t="n">
-        <v>-113.7440688275308</v>
-      </c>
-      <c r="D46" t="n">
-        <v>129.0736535661317</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1640,12 +1360,6 @@
       <c r="B47" t="n">
         <v>5</v>
       </c>
-      <c r="C47" t="n">
-        <v>-114.6711600812744</v>
-      </c>
-      <c r="D47" t="n">
-        <v>127.7645356653808</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1654,12 +1368,6 @@
       <c r="B48" t="n">
         <v>4</v>
       </c>
-      <c r="C48" t="n">
-        <v>-118.194613346872</v>
-      </c>
-      <c r="D48" t="n">
-        <v>126.239381243136</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1668,12 +1376,6 @@
       <c r="B49" t="n">
         <v>4</v>
       </c>
-      <c r="C49" t="n">
-        <v>-118.0500267156799</v>
-      </c>
-      <c r="D49" t="n">
-        <v>123.4717255597387</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1682,12 +1384,6 @@
       <c r="B50" t="n">
         <v>4</v>
       </c>
-      <c r="C50" t="n">
-        <v>-111.6326622898972</v>
-      </c>
-      <c r="D50" t="n">
-        <v>127.023062782834</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1696,12 +1392,6 @@
       <c r="B51" t="n">
         <v>3</v>
       </c>
-      <c r="C51" t="n">
-        <v>-124.1605901547125</v>
-      </c>
-      <c r="D51" t="n">
-        <v>126.6148779509915</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1709,12 +1399,6 @@
       </c>
       <c r="B52" t="n">
         <v>3</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-111.6354212577613</v>
-      </c>
-      <c r="D52" t="n">
-        <v>128.0498331021545</v>
       </c>
     </row>
   </sheetData>
